--- a/study01/report/motivation/scr-signedup-participants/pressure-tension/by-Type/NonParametricAnalysis.xlsx
+++ b/study01/report/motivation/scr-signedup-participants/pressure-tension/by-Type/NonParametricAnalysis.xlsx
@@ -13576,7 +13576,7 @@
         <v>69.0</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>-1.9067321073482102</v>
+        <v>-1.90673210734821</v>
       </c>
       <c r="H12" t="n" s="178">
         <v>0.02829870539446479</v>
@@ -13608,7 +13608,7 @@
         <v>69.0</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>-1.9067321073482102</v>
+        <v>-1.90673210734821</v>
       </c>
       <c r="H13" t="n" s="178">
         <v>0.02829870539446479</v>
@@ -26292,13 +26292,13 @@
         <v>127.0</v>
       </c>
       <c r="G7" t="n" s="730">
-        <v>0.9708588690818951</v>
+        <v>0.9708588690818954</v>
       </c>
       <c r="H7" t="n" s="731">
         <v>0.8350105906798923</v>
       </c>
       <c r="I7" t="n" s="732">
-        <v>0.18028396601635263</v>
+        <v>0.18028396601635271</v>
       </c>
       <c r="J7" t="s" s="733">
         <v>47</v>
@@ -26324,13 +26324,13 @@
         <v>127.0</v>
       </c>
       <c r="G8" t="n" s="730">
-        <v>0.9708588690818951</v>
+        <v>0.9708588690818954</v>
       </c>
       <c r="H8" t="n" s="731">
         <v>0.8350105906798923</v>
       </c>
       <c r="I8" t="n" s="732">
-        <v>0.18028396601635263</v>
+        <v>0.18028396601635271</v>
       </c>
       <c r="J8" t="s" s="733">
         <v>47</v>
@@ -26393,13 +26393,13 @@
         <v>127.0</v>
       </c>
       <c r="G11" t="n" s="758">
-        <v>0.9708588690818951</v>
+        <v>0.9708588690818954</v>
       </c>
       <c r="H11" t="n" s="759">
         <v>0.17133453397140438</v>
       </c>
       <c r="I11" t="n" s="760">
-        <v>0.18028396601635263</v>
+        <v>0.18028396601635271</v>
       </c>
       <c r="J11" t="s" s="761">
         <v>47</v>
@@ -26425,13 +26425,13 @@
         <v>127.0</v>
       </c>
       <c r="G12" t="n" s="758">
-        <v>0.9708588690818951</v>
+        <v>0.9708588690818954</v>
       </c>
       <c r="H12" t="n" s="759">
         <v>0.17133453397140438</v>
       </c>
       <c r="I12" t="n" s="760">
-        <v>0.18028396601635263</v>
+        <v>0.18028396601635271</v>
       </c>
       <c r="J12" t="s" s="761">
         <v>47</v>
@@ -26494,13 +26494,13 @@
         <v>127.0</v>
       </c>
       <c r="G15" t="n" s="786">
-        <v>0.9708588690818951</v>
+        <v>0.9708588690818954</v>
       </c>
       <c r="H15" t="n" s="787">
         <v>0.342067704537824</v>
       </c>
       <c r="I15" t="n" s="788">
-        <v>0.18028396601635263</v>
+        <v>0.18028396601635271</v>
       </c>
       <c r="J15" t="s" s="789">
         <v>47</v>
@@ -26526,13 +26526,13 @@
         <v>127.0</v>
       </c>
       <c r="G16" t="n" s="786">
-        <v>0.9708588690818951</v>
+        <v>0.9708588690818954</v>
       </c>
       <c r="H16" t="n" s="787">
         <v>0.342067704537824</v>
       </c>
       <c r="I16" t="n" s="788">
-        <v>0.18028396601635263</v>
+        <v>0.18028396601635271</v>
       </c>
       <c r="J16" t="s" s="789">
         <v>47</v>
@@ -36350,7 +36350,7 @@
         <v>69.0</v>
       </c>
       <c r="G7" t="n" s="1231">
-        <v>-1.9067321073482102</v>
+        <v>-1.90673210734821</v>
       </c>
       <c r="H7" t="n" s="1232">
         <v>0.02829870539446479</v>
@@ -36382,7 +36382,7 @@
         <v>69.0</v>
       </c>
       <c r="G8" t="n" s="1231">
-        <v>-1.9067321073482102</v>
+        <v>-1.90673210734821</v>
       </c>
       <c r="H8" t="n" s="1232">
         <v>0.02829870539446479</v>
@@ -36451,7 +36451,7 @@
         <v>69.0</v>
       </c>
       <c r="G11" t="n" s="1259">
-        <v>-1.9067321073482102</v>
+        <v>-1.90673210734821</v>
       </c>
       <c r="H11" t="n" s="1260">
         <v>0.9726804167575654</v>
@@ -36483,7 +36483,7 @@
         <v>69.0</v>
       </c>
       <c r="G12" t="n" s="1259">
-        <v>-1.9067321073482102</v>
+        <v>-1.90673210734821</v>
       </c>
       <c r="H12" t="n" s="1260">
         <v>0.9726804167575654</v>
@@ -36552,7 +36552,7 @@
         <v>69.0</v>
       </c>
       <c r="G15" t="n" s="1287">
-        <v>-1.9067321073482102</v>
+        <v>-1.90673210734821</v>
       </c>
       <c r="H15" t="n" s="1288">
         <v>0.05659741078892958</v>
@@ -36584,7 +36584,7 @@
         <v>69.0</v>
       </c>
       <c r="G16" t="n" s="1287">
-        <v>-1.9067321073482102</v>
+        <v>-1.90673210734821</v>
       </c>
       <c r="H16" t="n" s="1288">
         <v>0.05659741078892958</v>
